--- a/medicine/Psychotrope/Teinturier_du_Cher/Teinturier_du_Cher.xlsx
+++ b/medicine/Psychotrope/Teinturier_du_Cher/Teinturier_du_Cher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le teinturier du Cher est un cépage français de raisins noirs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage a une origine très ancienne et pourrait être la mutation d’un type sauvage. Il était autrefois très cultivé dans le Loir-et-Cher, le Loiret et le Cher.
 Il a joué un grand rôle dans les vignobles septentrionaux de France et d'Allemagne car il produit des vins très colorés. Les vins était mélangé à la cuve des raisins incomplètement mûrs.
@@ -546,7 +560,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux, blanc à liseré carminé.
 Jeunes feuilles duveteuses, bronzées
@@ -578,7 +594,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de première époque: il mûrit avec le chasselas.
 </t>
@@ -609,7 +627,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont petites et les baies sont de taille petite. La grappe est cylindro-conique et compacte. Le cépage est de faible vigueur. Le cépage produit des vins très colorés mais de qualité ordinaire, manquant de corps. Les vins sont utilisés en général dans des assemblages avec d’autres cépages.
 </t>
@@ -640,7 +660,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  teinturier du Cher est connu sous les noms de alicante, auvernat teint, bayonner, black Spanish, bluttraube, borgugnon nigrum, bourguignon noir, bretoonneria, Färbertraube, Furber, gros noir, gros noir de Villebarou, mauré, morieu, negrier, néraut, neurat, nigrier, noir à Tacher, noir d’Espagne, noir d’Orléans, noiraut, Oporto, plant des Bois, plant d’Espagne, pontack, pontak, pontiac, raisin d’Orléans, tachant, teinse, teint, teinteau, teintevin, teinturier, teinturier femelle (ou cinq fois coloré), teinturier mâle (ou dix fois coloré), tinta Francisca, tintentraube, tinto et uva tinta.
 </t>
